--- a/examples/sorting/output/got_study/got_sorting_study_best_run.xlsx
+++ b/examples/sorting/output/got_study/got_sorting_study_best_run.xlsx
@@ -53,10 +53,10 @@
     <t>mistakes</t>
   </si>
   <si>
-    <t>mistakes_penalized</t>
-  </si>
-  <si>
-    <t>&lt;function mean at 0x1051fc860&gt;</t>
+    <t>cost</t>
+  </si>
+  <si>
+    <t>&lt;function mean at 0x105a987c0&gt;</t>
   </si>
   <si>
     <t>min_runs</t>
@@ -478,7 +478,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>36.52357721328735</v>
+        <v>32.24233984947205</v>
       </c>
     </row>
   </sheetData>
@@ -596,10 +596,10 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>11.48</v>
+        <v>11.66</v>
       </c>
       <c r="C2">
-        <v>1.8165384193764</v>
+        <v>1.713320284516617</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -607,10 +607,10 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>11.56211779760777</v>
+        <v>0.04885957000000001</v>
       </c>
       <c r="C3">
-        <v>1.843845298333726</v>
+        <v>0.0005579164299829069</v>
       </c>
     </row>
   </sheetData>
@@ -666,28 +666,28 @@
         <v>27</v>
       </c>
       <c r="C2">
-        <v>46276.86</v>
+        <v>47907.8</v>
       </c>
       <c r="D2">
-        <v>18460.8</v>
+        <v>16603.78</v>
       </c>
       <c r="E2">
-        <v>64737.66</v>
+        <v>64511.58</v>
       </c>
       <c r="F2">
-        <v>0.02313843000000001</v>
+        <v>0.02395390000000001</v>
       </c>
       <c r="G2">
-        <v>0.0276912</v>
+        <v>0.02490567</v>
       </c>
       <c r="H2">
-        <v>0.05082962999999999</v>
+        <v>0.04885957000000001</v>
       </c>
       <c r="I2">
-        <v>204.3882088032109</v>
+        <v>183.0427827143134</v>
       </c>
       <c r="J2">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -698,28 +698,28 @@
         <v>28</v>
       </c>
       <c r="C3">
-        <v>46276.86</v>
+        <v>47907.8</v>
       </c>
       <c r="D3">
-        <v>18460.8</v>
+        <v>16603.78</v>
       </c>
       <c r="E3">
-        <v>64737.66</v>
+        <v>64511.58</v>
       </c>
       <c r="F3">
-        <v>0.02313843000000001</v>
+        <v>0.02395390000000001</v>
       </c>
       <c r="G3">
-        <v>0.0276912</v>
+        <v>0.02490567</v>
       </c>
       <c r="H3">
-        <v>0.05082962999999999</v>
+        <v>0.04885957000000001</v>
       </c>
       <c r="I3">
-        <v>204.3882088032109</v>
+        <v>183.0427827143134</v>
       </c>
       <c r="J3">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -730,28 +730,28 @@
         <v>29</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>530.9400000000001</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>265.9</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>796.84</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>0.00026547</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.00039885</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.00066432</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>2.405818986718077</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -762,25 +762,25 @@
         <v>27</v>
       </c>
       <c r="C5">
-        <v>46276.86</v>
+        <v>47907.8</v>
       </c>
       <c r="D5">
-        <v>18460.8</v>
+        <v>16603.78</v>
       </c>
       <c r="E5">
-        <v>64737.66</v>
+        <v>64511.58</v>
       </c>
       <c r="F5">
-        <v>0.02313843000000001</v>
+        <v>0.02395390000000001</v>
       </c>
       <c r="G5">
-        <v>0.0276912</v>
+        <v>0.02490567</v>
       </c>
       <c r="H5">
-        <v>0.05082962999999999</v>
+        <v>0.04885957000000001</v>
       </c>
       <c r="I5">
-        <v>26.69231837196741</v>
+        <v>27.06721770696342</v>
       </c>
       <c r="J5">
         <v>7</v>
@@ -794,25 +794,25 @@
         <v>28</v>
       </c>
       <c r="C6">
-        <v>46276.86</v>
+        <v>47907.8</v>
       </c>
       <c r="D6">
-        <v>18460.8</v>
+        <v>16603.78</v>
       </c>
       <c r="E6">
-        <v>64737.66</v>
+        <v>64511.58</v>
       </c>
       <c r="F6">
-        <v>0.02313843000000001</v>
+        <v>0.02395390000000001</v>
       </c>
       <c r="G6">
-        <v>0.0276912</v>
+        <v>0.02490567</v>
       </c>
       <c r="H6">
-        <v>0.05082962999999999</v>
+        <v>0.04885957000000001</v>
       </c>
       <c r="I6">
-        <v>26.69231837196741</v>
+        <v>27.06721770696342</v>
       </c>
       <c r="J6">
         <v>7</v>
@@ -826,28 +826,28 @@
         <v>29</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>530.9400000000001</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>265.9</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>796.84</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>0.00026547</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.00039885</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.00066432</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.7833545425138436</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
@@ -903,28 +903,28 @@
         <v>27</v>
       </c>
       <c r="C2">
-        <v>2313843</v>
+        <v>2395390</v>
       </c>
       <c r="D2">
-        <v>923040</v>
+        <v>830189</v>
       </c>
       <c r="E2">
-        <v>3236883</v>
+        <v>3225579</v>
       </c>
       <c r="F2">
-        <v>1.156921500000001</v>
+        <v>1.197695000000001</v>
       </c>
       <c r="G2">
-        <v>1.38456</v>
+        <v>1.2452835</v>
       </c>
       <c r="H2">
-        <v>2.5414815</v>
+        <v>2.442978500000001</v>
       </c>
       <c r="I2">
-        <v>10219.41044016054</v>
+        <v>9152.139135715668</v>
       </c>
       <c r="J2">
-        <v>5800</v>
+        <v>5500</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -935,28 +935,28 @@
         <v>28</v>
       </c>
       <c r="C3">
-        <v>2313843</v>
+        <v>2395390</v>
       </c>
       <c r="D3">
-        <v>923040</v>
+        <v>830189</v>
       </c>
       <c r="E3">
-        <v>3236883</v>
+        <v>3225579</v>
       </c>
       <c r="F3">
-        <v>1.156921500000001</v>
+        <v>1.197695000000001</v>
       </c>
       <c r="G3">
-        <v>1.38456</v>
+        <v>1.2452835</v>
       </c>
       <c r="H3">
-        <v>2.5414815</v>
+        <v>2.442978500000001</v>
       </c>
       <c r="I3">
-        <v>10219.41044016054</v>
+        <v>9152.139135715668</v>
       </c>
       <c r="J3">
-        <v>5800</v>
+        <v>5500</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -967,28 +967,28 @@
         <v>29</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>26547</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>13295</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>39842</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>0.0132735</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.0199425</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.033216</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>120.2909493359039</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -999,25 +999,25 @@
         <v>27</v>
       </c>
       <c r="C5">
-        <v>2313843</v>
+        <v>2395390</v>
       </c>
       <c r="D5">
-        <v>923040</v>
+        <v>830189</v>
       </c>
       <c r="E5">
-        <v>3236883</v>
+        <v>3225579</v>
       </c>
       <c r="F5">
-        <v>1.156921500000001</v>
+        <v>1.197695000000001</v>
       </c>
       <c r="G5">
-        <v>1.38456</v>
+        <v>1.2452835</v>
       </c>
       <c r="H5">
-        <v>2.5414815</v>
+        <v>2.442978500000001</v>
       </c>
       <c r="I5">
-        <v>1334.615918598371</v>
+        <v>1353.360885348171</v>
       </c>
       <c r="J5">
         <v>350</v>
@@ -1031,25 +1031,25 @@
         <v>28</v>
       </c>
       <c r="C6">
-        <v>2313843</v>
+        <v>2395390</v>
       </c>
       <c r="D6">
-        <v>923040</v>
+        <v>830189</v>
       </c>
       <c r="E6">
-        <v>3236883</v>
+        <v>3225579</v>
       </c>
       <c r="F6">
-        <v>1.156921500000001</v>
+        <v>1.197695000000001</v>
       </c>
       <c r="G6">
-        <v>1.38456</v>
+        <v>1.2452835</v>
       </c>
       <c r="H6">
-        <v>2.5414815</v>
+        <v>2.442978500000001</v>
       </c>
       <c r="I6">
-        <v>1334.615918598371</v>
+        <v>1353.360885348171</v>
       </c>
       <c r="J6">
         <v>350</v>
@@ -1063,28 +1063,28 @@
         <v>29</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>26547</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>13295</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>39842</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>0.0132735</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.0199425</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.033216</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>39.16772712569218</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
